--- a/SourceData_SupplementaryFigures.xlsx
+++ b/SourceData_SupplementaryFigures.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B10E56-6062-4121-9DC8-A81F2BA836BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3479C7FA-34F2-4F69-BF14-A1BE0A2A9C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3330" windowWidth="29040" windowHeight="17520" xr2:uid="{3F6DEA0C-AB49-4B1E-A5AF-9DA0E8705669}"/>
   </bookViews>
